--- a/Assets/RealFram/Data/Excel/Wave/WaveData_0101.xlsx
+++ b/Assets/RealFram/Data/Excel/Wave/WaveData_0101.xlsx
@@ -10,14 +10,14 @@
     <sheet name="波次参数" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">波次参数!$A$1:$K$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">波次参数!$A$1:$K$123</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>总数18只</t>
-  </si>
-  <si>
-    <t>总数19只</t>
   </si>
   <si>
     <t>总数20只</t>
@@ -942,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,9 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1419,10 +1413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1625,13 +1619,13 @@
       </c>
       <c r="D6" s="6">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="E6" s="6">
         <v>6003</v>
       </c>
       <c r="F6" s="6">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
@@ -1661,7 +1655,7 @@
       </c>
       <c r="D7" s="6">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>216</v>
+        <v>401</v>
       </c>
       <c r="E7" s="6">
         <v>6001</v>
@@ -1697,7 +1691,7 @@
       </c>
       <c r="D8" s="6">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>433</v>
+        <v>108</v>
       </c>
       <c r="E8" s="6">
         <v>7006</v>
@@ -1733,7 +1727,7 @@
       </c>
       <c r="D9" s="6">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>489</v>
+        <v>318</v>
       </c>
       <c r="E9" s="6">
         <v>7005</v>
@@ -1769,7 +1763,7 @@
       </c>
       <c r="D10" s="8">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>144</v>
+        <v>403</v>
       </c>
       <c r="E10" s="8">
         <v>1011</v>
@@ -1805,13 +1799,13 @@
       </c>
       <c r="D11" s="8">
         <f ca="1" t="shared" ref="D11:D17" si="0">RANDBETWEEN(0,500)</f>
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8">
         <v>3006</v>
       </c>
       <c r="F11" s="8">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>14</v>
@@ -1841,7 +1835,7 @@
       </c>
       <c r="D12" s="8">
         <f ca="1" t="shared" si="0"/>
-        <v>269</v>
+        <v>28</v>
       </c>
       <c r="E12" s="8">
         <v>1009</v>
@@ -1877,7 +1871,7 @@
       </c>
       <c r="D13" s="8">
         <f ca="1" t="shared" si="0"/>
-        <v>346</v>
+        <v>489</v>
       </c>
       <c r="E13" s="8">
         <v>3004</v>
@@ -1913,7 +1907,7 @@
       </c>
       <c r="D14" s="8">
         <f ca="1" t="shared" si="0"/>
-        <v>177</v>
+        <v>451</v>
       </c>
       <c r="E14" s="8">
         <v>1007</v>
@@ -1949,7 +1943,7 @@
       </c>
       <c r="D15" s="8">
         <f ca="1" t="shared" si="0"/>
-        <v>328</v>
+        <v>490</v>
       </c>
       <c r="E15" s="8">
         <v>3002</v>
@@ -1985,7 +1979,7 @@
       </c>
       <c r="D16" s="8">
         <f ca="1" t="shared" si="0"/>
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="E16" s="8">
         <v>5011</v>
@@ -2021,7 +2015,7 @@
       </c>
       <c r="D17" s="8">
         <f ca="1" t="shared" si="0"/>
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="E17" s="8">
         <v>5008</v>
@@ -2302,7 +2296,7 @@
       </c>
       <c r="D25" s="12">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E25" s="12">
         <v>5010</v>
@@ -2338,7 +2332,7 @@
       </c>
       <c r="D26" s="12">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>331</v>
+        <v>18</v>
       </c>
       <c r="E26" s="12">
         <v>5011</v>
@@ -2374,7 +2368,7 @@
       </c>
       <c r="D27" s="12">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="E27" s="12">
         <v>5001</v>
@@ -2410,7 +2404,7 @@
       </c>
       <c r="D28" s="12">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>470</v>
+        <v>288</v>
       </c>
       <c r="E28" s="12">
         <v>5003</v>
@@ -2796,13 +2790,13 @@
       </c>
       <c r="D39" s="18">
         <f ca="1" t="shared" ref="D39:D46" si="1">RANDBETWEEN(0,500)</f>
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E39" s="18">
         <v>7008</v>
       </c>
       <c r="F39" s="18">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>30</v>
@@ -2832,13 +2826,13 @@
       </c>
       <c r="D40" s="18">
         <f ca="1" t="shared" si="1"/>
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="E40" s="18">
         <v>7009</v>
       </c>
       <c r="F40" s="18">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>30</v>
@@ -2868,13 +2862,13 @@
       </c>
       <c r="D41" s="18">
         <f ca="1" t="shared" si="1"/>
-        <v>52</v>
+        <v>379</v>
       </c>
       <c r="E41" s="18">
         <v>7006</v>
       </c>
       <c r="F41" s="18">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>30</v>
@@ -2904,13 +2898,13 @@
       </c>
       <c r="D42" s="18">
         <f ca="1" t="shared" si="1"/>
-        <v>347</v>
+        <v>224</v>
       </c>
       <c r="E42" s="18">
         <v>7005</v>
       </c>
       <c r="F42" s="18">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>30</v>
@@ -2940,7 +2934,7 @@
       </c>
       <c r="D43" s="20">
         <f ca="1" t="shared" si="1"/>
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="E43" s="20">
         <v>1010</v>
@@ -2976,7 +2970,7 @@
       </c>
       <c r="D44" s="20">
         <f ca="1" t="shared" si="1"/>
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="E44" s="20">
         <v>1012</v>
@@ -3012,7 +3006,7 @@
       </c>
       <c r="D45" s="20">
         <f ca="1" t="shared" si="1"/>
-        <v>283</v>
+        <v>46</v>
       </c>
       <c r="E45" s="20">
         <v>3008</v>
@@ -3048,7 +3042,7 @@
       </c>
       <c r="D46" s="20">
         <f ca="1" t="shared" si="1"/>
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="E46" s="20">
         <v>3006</v>
@@ -3084,7 +3078,7 @@
       </c>
       <c r="D47" s="20">
         <f ca="1">RANDBETWEEN(1000,1500)</f>
-        <v>1258</v>
+        <v>1039</v>
       </c>
       <c r="E47" s="20">
         <v>7018</v>
@@ -3120,7 +3114,7 @@
       </c>
       <c r="D48" s="20">
         <f ca="1">RANDBETWEEN(1000,1500)</f>
-        <v>1323</v>
+        <v>1496</v>
       </c>
       <c r="E48" s="20">
         <v>1013</v>
@@ -3156,7 +3150,7 @@
       </c>
       <c r="D49" s="20">
         <f ca="1">RANDBETWEEN(1000,1500)</f>
-        <v>1322</v>
+        <v>1117</v>
       </c>
       <c r="E49" s="20">
         <v>1014</v>
@@ -3192,7 +3186,7 @@
       </c>
       <c r="D50" s="20">
         <f ca="1" t="shared" ref="D50:D56" si="2">RANDBETWEEN(1000,1500)</f>
-        <v>1308</v>
+        <v>1494</v>
       </c>
       <c r="E50" s="20">
         <v>3010</v>
@@ -3228,7 +3222,7 @@
       </c>
       <c r="D51" s="20">
         <f ca="1" t="shared" si="2"/>
-        <v>1204</v>
+        <v>1320</v>
       </c>
       <c r="E51" s="20">
         <v>8007</v>
@@ -3264,7 +3258,7 @@
       </c>
       <c r="D52" s="20">
         <f ca="1" t="shared" si="2"/>
-        <v>1132</v>
+        <v>1251</v>
       </c>
       <c r="E52" s="20">
         <v>3008</v>
@@ -3300,7 +3294,7 @@
       </c>
       <c r="D53" s="20">
         <f ca="1" t="shared" si="2"/>
-        <v>1041</v>
+        <v>1450</v>
       </c>
       <c r="E53" s="20">
         <v>8023</v>
@@ -3336,7 +3330,7 @@
       </c>
       <c r="D54" s="20">
         <f ca="1" t="shared" si="2"/>
-        <v>1497</v>
+        <v>1202</v>
       </c>
       <c r="E54" s="20">
         <v>4005</v>
@@ -3372,7 +3366,7 @@
       </c>
       <c r="D55" s="20">
         <f ca="1" t="shared" si="2"/>
-        <v>1373</v>
+        <v>1277</v>
       </c>
       <c r="E55" s="20">
         <v>4002</v>
@@ -3408,7 +3402,7 @@
       </c>
       <c r="D56" s="20">
         <f ca="1" t="shared" si="2"/>
-        <v>1217</v>
+        <v>1328</v>
       </c>
       <c r="E56" s="20">
         <v>8003</v>
@@ -3794,7 +3788,7 @@
       </c>
       <c r="D67" s="28">
         <f ca="1" t="shared" ref="D67:D79" si="3">RANDBETWEEN(0,500)</f>
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="E67" s="28">
         <v>8006</v>
@@ -3830,7 +3824,7 @@
       </c>
       <c r="D68" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="E68" s="28">
         <v>8007</v>
@@ -3866,7 +3860,7 @@
       </c>
       <c r="D69" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="E69" s="28">
         <v>8023</v>
@@ -3902,7 +3896,7 @@
       </c>
       <c r="D70" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="E70" s="28">
         <v>7019</v>
@@ -3938,7 +3932,7 @@
       </c>
       <c r="D71" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>391</v>
+        <v>127</v>
       </c>
       <c r="E71" s="28">
         <v>8002</v>
@@ -3974,7 +3968,7 @@
       </c>
       <c r="D72" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>445</v>
+        <v>24</v>
       </c>
       <c r="E72" s="28">
         <v>8003</v>
@@ -4010,7 +4004,7 @@
       </c>
       <c r="D73" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="E73" s="28">
         <v>8004</v>
@@ -4046,7 +4040,7 @@
       </c>
       <c r="D74" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>89</v>
+        <v>293</v>
       </c>
       <c r="E74" s="28">
         <v>8008</v>
@@ -4082,7 +4076,7 @@
       </c>
       <c r="D75" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>310</v>
+        <v>6</v>
       </c>
       <c r="E75" s="28">
         <v>3008</v>
@@ -4118,7 +4112,7 @@
       </c>
       <c r="D76" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>218</v>
+        <v>362</v>
       </c>
       <c r="E76" s="28">
         <v>3007</v>
@@ -4154,7 +4148,7 @@
       </c>
       <c r="D77" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>354</v>
+        <v>17</v>
       </c>
       <c r="E77" s="28">
         <v>3006</v>
@@ -4190,7 +4184,7 @@
       </c>
       <c r="D78" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="E78" s="28">
         <v>3005</v>
@@ -4226,7 +4220,7 @@
       </c>
       <c r="D79" s="28">
         <f ca="1" t="shared" si="3"/>
-        <v>464</v>
+        <v>231</v>
       </c>
       <c r="E79" s="28">
         <v>3004</v>
@@ -4437,7 +4431,7 @@
       </c>
       <c r="D85" s="32">
         <f ca="1">RANDBETWEEN(500,2500)</f>
-        <v>1947</v>
+        <v>681</v>
       </c>
       <c r="E85" s="32">
         <v>5001</v>
@@ -4473,7 +4467,7 @@
       </c>
       <c r="D86" s="32">
         <f ca="1">RANDBETWEEN(500,2500)</f>
-        <v>1253</v>
+        <v>815</v>
       </c>
       <c r="E86" s="32">
         <v>5003</v>
@@ -4509,7 +4503,7 @@
       </c>
       <c r="D87" s="32">
         <f ca="1">RANDBETWEEN(500,2500)</f>
-        <v>1255</v>
+        <v>888</v>
       </c>
       <c r="E87" s="32">
         <v>5005</v>
@@ -4545,7 +4539,7 @@
       </c>
       <c r="D88" s="32">
         <f ca="1">RANDBETWEEN(500,2500)</f>
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="E88" s="32">
         <v>5004</v>
@@ -4581,7 +4575,7 @@
       </c>
       <c r="D89" s="32">
         <f ca="1">RANDBETWEEN(500,2500)</f>
-        <v>1253</v>
+        <v>2471</v>
       </c>
       <c r="E89" s="32">
         <v>5002</v>
@@ -4617,7 +4611,7 @@
       </c>
       <c r="D90" s="32">
         <f ca="1">RANDBETWEEN(5000,7500)</f>
-        <v>6702</v>
+        <v>6819</v>
       </c>
       <c r="E90" s="32">
         <v>5007</v>
@@ -4653,7 +4647,7 @@
       </c>
       <c r="D91" s="32">
         <f ca="1">RANDBETWEEN(5000,7500)</f>
-        <v>5185</v>
+        <v>5170</v>
       </c>
       <c r="E91" s="32">
         <v>5009</v>
@@ -4689,7 +4683,7 @@
       </c>
       <c r="D92" s="32">
         <f ca="1">RANDBETWEEN(5000,7500)</f>
-        <v>6847</v>
+        <v>6937</v>
       </c>
       <c r="E92" s="32">
         <v>5010</v>
@@ -4725,7 +4719,7 @@
       </c>
       <c r="D93" s="32">
         <f ca="1">RANDBETWEEN(5000,7500)</f>
-        <v>5044</v>
+        <v>5218</v>
       </c>
       <c r="E93" s="32">
         <v>5012</v>
@@ -4761,7 +4755,7 @@
       </c>
       <c r="D94" s="32">
         <f ca="1">RANDBETWEEN(5000,7500)</f>
-        <v>7345</v>
+        <v>5852</v>
       </c>
       <c r="E94" s="32">
         <v>5008</v>
@@ -4797,7 +4791,7 @@
       </c>
       <c r="D95" s="35">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>92</v>
+        <v>440</v>
       </c>
       <c r="E95" s="35">
         <v>1008</v>
@@ -4833,7 +4827,7 @@
       </c>
       <c r="D96" s="35">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="E96" s="35">
         <v>3004</v>
@@ -4869,7 +4863,7 @@
       </c>
       <c r="D97" s="35">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="E97" s="35">
         <v>1010</v>
@@ -4905,7 +4899,7 @@
       </c>
       <c r="D98" s="35">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>173</v>
+        <v>364</v>
       </c>
       <c r="E98" s="35">
         <v>3006</v>
@@ -4941,7 +4935,7 @@
       </c>
       <c r="D99" s="35">
         <f ca="1">RANDBETWEEN(2500,3000)</f>
-        <v>2556</v>
+        <v>2875</v>
       </c>
       <c r="E99" s="35">
         <v>7019</v>
@@ -4977,7 +4971,7 @@
       </c>
       <c r="D100" s="35">
         <f ca="1">RANDBETWEEN(2500,3000)</f>
-        <v>2539</v>
+        <v>2715</v>
       </c>
       <c r="E100" s="35">
         <v>7018</v>
@@ -5013,7 +5007,7 @@
       </c>
       <c r="D101" s="35">
         <f ca="1">RANDBETWEEN(2500,3000)</f>
-        <v>2983</v>
+        <v>2924</v>
       </c>
       <c r="E101" s="35">
         <v>1013</v>
@@ -5049,7 +5043,7 @@
       </c>
       <c r="D102" s="35">
         <f ca="1">RANDBETWEEN(2500,3000)</f>
-        <v>2787</v>
+        <v>2987</v>
       </c>
       <c r="E102" s="35">
         <v>3009</v>
@@ -5085,7 +5079,7 @@
       </c>
       <c r="D103" s="38">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="E103" s="38">
         <v>8011</v>
@@ -5121,7 +5115,7 @@
       </c>
       <c r="D104" s="38">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E104" s="38">
         <v>8022</v>
@@ -5157,7 +5151,7 @@
       </c>
       <c r="D105" s="38">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="E105" s="38">
         <v>3005</v>
@@ -5193,7 +5187,7 @@
       </c>
       <c r="D106" s="38">
         <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>285</v>
+        <v>442</v>
       </c>
       <c r="E106" s="38">
         <v>1009</v>
@@ -5229,7 +5223,7 @@
       </c>
       <c r="D107" s="38">
         <f ca="1">RANDBETWEEN(3000,3500)</f>
-        <v>3253</v>
+        <v>3400</v>
       </c>
       <c r="E107" s="38">
         <v>3008</v>
@@ -5265,7 +5259,7 @@
       </c>
       <c r="D108" s="38">
         <f ca="1">RANDBETWEEN(3000,3500)</f>
-        <v>3131</v>
+        <v>3249</v>
       </c>
       <c r="E108" s="38">
         <v>3009</v>
@@ -5301,7 +5295,7 @@
       </c>
       <c r="D109" s="38">
         <f ca="1">RANDBETWEEN(3000,3500)</f>
-        <v>3338</v>
+        <v>3021</v>
       </c>
       <c r="E109" s="38">
         <v>1011</v>
@@ -5337,7 +5331,7 @@
       </c>
       <c r="D110" s="38">
         <f ca="1">RANDBETWEEN(3000,3500)</f>
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="E110" s="38">
         <v>1012</v>
@@ -5362,7 +5356,7 @@
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="37">
+      <c r="A111" s="34">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -5373,13 +5367,13 @@
       </c>
       <c r="D111" s="38">
         <f ca="1">RANDBETWEEN(6500,7000)</f>
-        <v>6835</v>
+        <v>6731</v>
       </c>
       <c r="E111" s="38">
-        <v>7019</v>
+        <v>3002</v>
       </c>
       <c r="F111" s="38">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="G111" s="39" t="s">
         <v>51</v>
@@ -5398,7 +5392,7 @@
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="37">
+      <c r="A112" s="34">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -5409,10 +5403,10 @@
       </c>
       <c r="D112" s="38">
         <f ca="1">RANDBETWEEN(6500,7000)</f>
-        <v>6903</v>
+        <v>6822</v>
       </c>
       <c r="E112" s="38">
-        <v>3002</v>
+        <v>1007</v>
       </c>
       <c r="F112" s="38">
         <v>2001</v>
@@ -5434,7 +5428,7 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="37">
+      <c r="A113" s="34">
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -5445,13 +5439,13 @@
       </c>
       <c r="D113" s="38">
         <f ca="1">RANDBETWEEN(6500,7000)</f>
-        <v>6581</v>
+        <v>6546</v>
       </c>
       <c r="E113" s="38">
-        <v>1007</v>
+        <v>8013</v>
       </c>
       <c r="F113" s="38">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G113" s="39" t="s">
         <v>53</v>
@@ -5470,403 +5464,367 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="37">
+      <c r="A114" s="34">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C114" s="38">
-        <v>19</v>
-      </c>
-      <c r="D114" s="38">
-        <f ca="1">RANDBETWEEN(6500,7000)</f>
-        <v>6956</v>
-      </c>
-      <c r="E114" s="38">
-        <v>8013</v>
-      </c>
-      <c r="F114" s="38">
+      <c r="C114" s="40">
+        <v>20</v>
+      </c>
+      <c r="D114" s="40">
+        <f ca="1">RANDBETWEEN(0,500)</f>
+        <v>110</v>
+      </c>
+      <c r="E114" s="40">
+        <v>6002</v>
+      </c>
+      <c r="F114" s="40">
+        <v>2001</v>
+      </c>
+      <c r="G114" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H114" s="40">
+        <v>1</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" s="40">
+        <v>0</v>
+      </c>
+      <c r="K114" s="26">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="34">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="40">
+        <v>20</v>
+      </c>
+      <c r="D115" s="40">
+        <f ca="1">RANDBETWEEN(0,500)</f>
+        <v>270</v>
+      </c>
+      <c r="E115" s="40">
+        <v>6001</v>
+      </c>
+      <c r="F115" s="40">
+        <v>2004</v>
+      </c>
+      <c r="G115" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H115" s="40">
+        <v>1</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0</v>
+      </c>
+      <c r="J115" s="40">
+        <v>0</v>
+      </c>
+      <c r="K115" s="26">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="37">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="40">
+        <v>20</v>
+      </c>
+      <c r="D116" s="40">
+        <f ca="1">RANDBETWEEN(0,500)</f>
+        <v>346</v>
+      </c>
+      <c r="E116" s="40">
+        <v>7004</v>
+      </c>
+      <c r="F116" s="40">
+        <v>2001</v>
+      </c>
+      <c r="G116" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H116" s="40">
+        <v>1</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+      <c r="J116" s="40">
+        <v>0</v>
+      </c>
+      <c r="K116" s="26">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="37">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="40">
+        <v>20</v>
+      </c>
+      <c r="D117" s="40">
+        <f ca="1">RANDBETWEEN(0,500)</f>
+        <v>30</v>
+      </c>
+      <c r="E117" s="40">
+        <v>7003</v>
+      </c>
+      <c r="F117" s="40">
+        <v>2001</v>
+      </c>
+      <c r="G117" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H117" s="40">
+        <v>1</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+      <c r="J117" s="40">
+        <v>0</v>
+      </c>
+      <c r="K117" s="26">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="37">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="40">
+        <v>20</v>
+      </c>
+      <c r="D118" s="40">
+        <f ca="1">RANDBETWEEN(0,500)</f>
+        <v>439</v>
+      </c>
+      <c r="E118" s="40">
+        <v>8023</v>
+      </c>
+      <c r="F118" s="40">
         <v>2002</v>
       </c>
-      <c r="G114" s="39" t="s">
+      <c r="G118" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="H114" s="38">
-        <v>1</v>
-      </c>
-      <c r="I114" s="4">
-        <v>0</v>
-      </c>
-      <c r="J114" s="38">
-        <v>0</v>
-      </c>
-      <c r="K114" s="26">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="40">
-        <v>114</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="41">
+      <c r="H118" s="40">
+        <v>1</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+      <c r="J118" s="40">
+        <v>0</v>
+      </c>
+      <c r="K118" s="26">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="37">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="40">
         <v>20</v>
       </c>
-      <c r="D115" s="41">
-        <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>291</v>
-      </c>
-      <c r="E115" s="41">
+      <c r="D119" s="40">
+        <f ca="1">RANDBETWEEN(2500,4000)</f>
+        <v>3235</v>
+      </c>
+      <c r="E119" s="40">
         <v>6002</v>
       </c>
-      <c r="F115" s="41">
-        <v>2001</v>
-      </c>
-      <c r="G115" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H115" s="41">
-        <v>1</v>
-      </c>
-      <c r="I115" s="4">
-        <v>0</v>
-      </c>
-      <c r="J115" s="41">
-        <v>0</v>
-      </c>
-      <c r="K115" s="26">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="40">
-        <v>115</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="41">
+      <c r="F119" s="40">
+        <v>2001</v>
+      </c>
+      <c r="G119" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H119" s="40">
+        <v>1</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0</v>
+      </c>
+      <c r="J119" s="40">
+        <v>0</v>
+      </c>
+      <c r="K119" s="26">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="37">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="40">
         <v>20</v>
       </c>
-      <c r="D116" s="41">
-        <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>60</v>
-      </c>
-      <c r="E116" s="41">
+      <c r="D120" s="40">
+        <f ca="1">RANDBETWEEN(2500,4000)</f>
+        <v>3952</v>
+      </c>
+      <c r="E120" s="40">
         <v>6001</v>
       </c>
-      <c r="F116" s="41">
+      <c r="F120" s="40">
         <v>2004</v>
       </c>
-      <c r="G116" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H116" s="41">
-        <v>1</v>
-      </c>
-      <c r="I116" s="4">
-        <v>0</v>
-      </c>
-      <c r="J116" s="41">
-        <v>0</v>
-      </c>
-      <c r="K116" s="26">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="40">
-        <v>116</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="41">
+      <c r="G120" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H120" s="40">
+        <v>1</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+      <c r="J120" s="40">
+        <v>0</v>
+      </c>
+      <c r="K120" s="26">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="37">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="40">
         <v>20</v>
       </c>
-      <c r="D117" s="41">
-        <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>145</v>
-      </c>
-      <c r="E117" s="41">
-        <v>7004</v>
-      </c>
-      <c r="F117" s="41">
-        <v>2001</v>
-      </c>
-      <c r="G117" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H117" s="41">
-        <v>1</v>
-      </c>
-      <c r="I117" s="4">
-        <v>0</v>
-      </c>
-      <c r="J117" s="41">
-        <v>0</v>
-      </c>
-      <c r="K117" s="26">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="40">
-        <v>117</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="41">
+      <c r="D121" s="40">
+        <f ca="1">RANDBETWEEN(2500,4000)</f>
+        <v>3425</v>
+      </c>
+      <c r="E121" s="40">
+        <v>1012</v>
+      </c>
+      <c r="F121" s="40">
+        <v>2001</v>
+      </c>
+      <c r="G121" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H121" s="40">
+        <v>1</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0</v>
+      </c>
+      <c r="J121" s="40">
+        <v>0</v>
+      </c>
+      <c r="K121" s="26">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="37">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="40">
         <v>20</v>
       </c>
-      <c r="D118" s="41">
-        <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>91</v>
-      </c>
-      <c r="E118" s="41">
-        <v>7003</v>
-      </c>
-      <c r="F118" s="41">
-        <v>2001</v>
-      </c>
-      <c r="G118" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H118" s="41">
-        <v>1</v>
-      </c>
-      <c r="I118" s="4">
-        <v>0</v>
-      </c>
-      <c r="J118" s="41">
-        <v>0</v>
-      </c>
-      <c r="K118" s="26">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="40">
-        <v>118</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="41">
+      <c r="D122" s="40">
+        <f ca="1">RANDBETWEEN(2500,4000)</f>
+        <v>2514</v>
+      </c>
+      <c r="E122" s="40">
+        <v>3008</v>
+      </c>
+      <c r="F122" s="40">
+        <v>2001</v>
+      </c>
+      <c r="G122" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H122" s="40">
+        <v>1</v>
+      </c>
+      <c r="I122" s="4">
+        <v>0</v>
+      </c>
+      <c r="J122" s="40">
+        <v>0</v>
+      </c>
+      <c r="K122" s="26">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="37">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="40">
         <v>20</v>
       </c>
-      <c r="D119" s="41">
-        <f ca="1">RANDBETWEEN(0,500)</f>
-        <v>389</v>
-      </c>
-      <c r="E119" s="41">
-        <v>8023</v>
-      </c>
-      <c r="F119" s="41">
+      <c r="D123" s="40">
+        <f ca="1">RANDBETWEEN(2500,4000)</f>
+        <v>2733</v>
+      </c>
+      <c r="E123" s="40">
+        <v>8008</v>
+      </c>
+      <c r="F123" s="40">
         <v>2002</v>
       </c>
-      <c r="G119" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H119" s="41">
-        <v>1</v>
-      </c>
-      <c r="I119" s="4">
-        <v>0</v>
-      </c>
-      <c r="J119" s="41">
-        <v>0</v>
-      </c>
-      <c r="K119" s="26">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="40">
-        <v>119</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="41">
-        <v>20</v>
-      </c>
-      <c r="D120" s="41">
-        <f ca="1">RANDBETWEEN(2500,4000)</f>
-        <v>2962</v>
-      </c>
-      <c r="E120" s="41">
-        <v>6002</v>
-      </c>
-      <c r="F120" s="41">
-        <v>2001</v>
-      </c>
-      <c r="G120" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H120" s="41">
-        <v>1</v>
-      </c>
-      <c r="I120" s="4">
-        <v>0</v>
-      </c>
-      <c r="J120" s="41">
-        <v>0</v>
-      </c>
-      <c r="K120" s="26">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="40">
-        <v>120</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="41">
-        <v>20</v>
-      </c>
-      <c r="D121" s="41">
-        <f ca="1">RANDBETWEEN(2500,4000)</f>
-        <v>3293</v>
-      </c>
-      <c r="E121" s="41">
-        <v>6001</v>
-      </c>
-      <c r="F121" s="41">
-        <v>2004</v>
-      </c>
-      <c r="G121" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H121" s="41">
-        <v>1</v>
-      </c>
-      <c r="I121" s="4">
-        <v>0</v>
-      </c>
-      <c r="J121" s="41">
-        <v>0</v>
-      </c>
-      <c r="K121" s="26">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="40">
-        <v>121</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="41">
-        <v>20</v>
-      </c>
-      <c r="D122" s="41">
-        <f ca="1">RANDBETWEEN(2500,4000)</f>
-        <v>2762</v>
-      </c>
-      <c r="E122" s="41">
-        <v>1012</v>
-      </c>
-      <c r="F122" s="41">
-        <v>2001</v>
-      </c>
-      <c r="G122" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H122" s="41">
-        <v>1</v>
-      </c>
-      <c r="I122" s="4">
-        <v>0</v>
-      </c>
-      <c r="J122" s="41">
-        <v>0</v>
-      </c>
-      <c r="K122" s="26">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="40">
-        <v>122</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="41">
-        <v>20</v>
-      </c>
-      <c r="D123" s="41">
-        <f ca="1">RANDBETWEEN(2500,4000)</f>
-        <v>3040</v>
-      </c>
-      <c r="E123" s="41">
-        <v>3008</v>
-      </c>
-      <c r="F123" s="41">
-        <v>2001</v>
-      </c>
-      <c r="G123" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H123" s="41">
+      <c r="G123" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H123" s="40">
         <v>1</v>
       </c>
       <c r="I123" s="4">
         <v>0</v>
       </c>
-      <c r="J123" s="41">
+      <c r="J123" s="40">
         <v>0</v>
       </c>
       <c r="K123" s="26">
         <v>300000</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="40">
-        <v>123</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="41">
-        <v>20</v>
-      </c>
-      <c r="D124" s="41">
-        <f ca="1">RANDBETWEEN(2500,4000)</f>
-        <v>3389</v>
-      </c>
-      <c r="E124" s="41">
-        <v>8008</v>
-      </c>
-      <c r="F124" s="41">
-        <v>2002</v>
-      </c>
-      <c r="G124" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H124" s="41">
-        <v>1</v>
-      </c>
-      <c r="I124" s="4">
-        <v>0</v>
-      </c>
-      <c r="J124" s="41">
-        <v>0</v>
-      </c>
-      <c r="K124" s="26">
-        <v>300000</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K124">
+  <autoFilter ref="A1:K123">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
